--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn2-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn2-Cntn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Cntn2</t>
   </si>
   <si>
     <t>Cntn1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,13 +537,13 @@
         <v>0.1436673333333333</v>
       </c>
       <c r="H2">
-        <v>0.4310020000000001</v>
+        <v>0.431002</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +558,10 @@
         <v>0.35974</v>
       </c>
       <c r="O2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="P2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="Q2">
         <v>0.01722762883111111</v>
@@ -567,10 +570,10 @@
         <v>0.15504865948</v>
       </c>
       <c r="S2">
-        <v>0.5277983996150155</v>
+        <v>0.171993373651254</v>
       </c>
       <c r="T2">
-        <v>0.5277983996150155</v>
+        <v>0.171993373651254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,43 +599,291 @@
         <v>0.1436673333333333</v>
       </c>
       <c r="H3">
-        <v>0.4310020000000001</v>
+        <v>0.431002</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.2669800000000001</v>
+      </c>
+      <c r="N3">
+        <v>0.8009400000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.6900609987248855</v>
+      </c>
+      <c r="P3">
+        <v>0.6900609987248854</v>
+      </c>
+      <c r="Q3">
+        <v>0.03835630465333334</v>
+      </c>
+      <c r="R3">
+        <v>0.3452067418800001</v>
+      </c>
+      <c r="S3">
+        <v>0.3829331536449531</v>
+      </c>
+      <c r="T3">
+        <v>0.382933153644953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.011717</v>
+      </c>
+      <c r="H4">
+        <v>0.035151</v>
+      </c>
+      <c r="I4">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="J4">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.1199133333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.35974</v>
+      </c>
+      <c r="O4">
+        <v>0.3099390012751145</v>
+      </c>
+      <c r="P4">
+        <v>0.3099390012751145</v>
+      </c>
+      <c r="Q4">
+        <v>0.001405024526666667</v>
+      </c>
+      <c r="R4">
+        <v>0.01264522074</v>
+      </c>
+      <c r="S4">
+        <v>0.01402717174680217</v>
+      </c>
+      <c r="T4">
+        <v>0.01402717174680217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.011717</v>
+      </c>
+      <c r="H5">
+        <v>0.035151</v>
+      </c>
+      <c r="I5">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="J5">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2669800000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.8009400000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.6900609987248855</v>
+      </c>
+      <c r="P5">
+        <v>0.6900609987248854</v>
+      </c>
+      <c r="Q5">
+        <v>0.003128204660000001</v>
+      </c>
+      <c r="R5">
+        <v>0.02815384194</v>
+      </c>
+      <c r="S5">
+        <v>0.03123067476200515</v>
+      </c>
+      <c r="T5">
+        <v>0.03123067476200515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="F6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M3">
-        <v>0.107282</v>
-      </c>
-      <c r="N3">
-        <v>0.321846</v>
-      </c>
-      <c r="O3">
-        <v>0.4722016003849844</v>
-      </c>
-      <c r="P3">
-        <v>0.4722016003849844</v>
-      </c>
-      <c r="Q3">
-        <v>0.01541291885466667</v>
-      </c>
-      <c r="R3">
-        <v>0.138716269692</v>
-      </c>
-      <c r="S3">
-        <v>0.4722016003849844</v>
-      </c>
-      <c r="T3">
-        <v>0.4722016003849844</v>
+      <c r="G6">
+        <v>0.10351</v>
+      </c>
+      <c r="H6">
+        <v>0.31053</v>
+      </c>
+      <c r="I6">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="J6">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1199133333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.35974</v>
+      </c>
+      <c r="O6">
+        <v>0.3099390012751145</v>
+      </c>
+      <c r="P6">
+        <v>0.3099390012751145</v>
+      </c>
+      <c r="Q6">
+        <v>0.01241222913333333</v>
+      </c>
+      <c r="R6">
+        <v>0.1117100622</v>
+      </c>
+      <c r="S6">
+        <v>0.1239184558770583</v>
+      </c>
+      <c r="T6">
+        <v>0.1239184558770583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.10351</v>
+      </c>
+      <c r="H7">
+        <v>0.31053</v>
+      </c>
+      <c r="I7">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="J7">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2669800000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.8009400000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.6900609987248855</v>
+      </c>
+      <c r="P7">
+        <v>0.6900609987248854</v>
+      </c>
+      <c r="Q7">
+        <v>0.0276350998</v>
+      </c>
+      <c r="R7">
+        <v>0.2487158982</v>
+      </c>
+      <c r="S7">
+        <v>0.2758971703179272</v>
+      </c>
+      <c r="T7">
+        <v>0.2758971703179272</v>
       </c>
     </row>
   </sheetData>
